--- a/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>166.2591891737606</v>
+        <v>162.5211780013051</v>
       </c>
       <c r="C2" t="n">
-        <v>53.56711633125587</v>
+        <v>38.44890506488736</v>
       </c>
       <c r="D2" t="n">
-        <v>283.5627099906151</v>
+        <v>270.8393412223631</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44936</v>
       </c>
       <c r="B3" t="n">
-        <v>179.3595881513559</v>
+        <v>177.165958332475</v>
       </c>
       <c r="C3" t="n">
-        <v>68.41531625307732</v>
+        <v>64.61816402716487</v>
       </c>
       <c r="D3" t="n">
-        <v>300.8853373624275</v>
+        <v>300.2404939825666</v>
       </c>
       <c r="E3" t="n">
         <v>260</v>
@@ -516,13 +516,13 @@
         <v>44943</v>
       </c>
       <c r="B4" t="n">
-        <v>218.9592001885575</v>
+        <v>219.4974212799783</v>
       </c>
       <c r="C4" t="n">
-        <v>108.8161218366463</v>
+        <v>104.987143865966</v>
       </c>
       <c r="D4" t="n">
-        <v>328.2367750370424</v>
+        <v>333.9124011936326</v>
       </c>
       <c r="E4" t="n">
         <v>210</v>
@@ -536,13 +536,13 @@
         <v>44950</v>
       </c>
       <c r="B5" t="n">
-        <v>232.8404583092976</v>
+        <v>235.1469559428715</v>
       </c>
       <c r="C5" t="n">
-        <v>129.6003128243271</v>
+        <v>120.0978724854699</v>
       </c>
       <c r="D5" t="n">
-        <v>352.3742592097701</v>
+        <v>349.4814514481597</v>
       </c>
       <c r="E5" t="n">
         <v>150</v>
@@ -556,13 +556,13 @@
         <v>44957</v>
       </c>
       <c r="B6" t="n">
-        <v>210.9057788754006</v>
+        <v>210.6886388183542</v>
       </c>
       <c r="C6" t="n">
-        <v>94.66170578330247</v>
+        <v>88.58355632931443</v>
       </c>
       <c r="D6" t="n">
-        <v>322.0112917532883</v>
+        <v>319.027975965295</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44960</v>
       </c>
       <c r="B7" t="n">
-        <v>84.22836824856873</v>
+        <v>82.51727265342511</v>
       </c>
       <c r="C7" t="n">
-        <v>-19.96319655198108</v>
+        <v>-25.28548335905767</v>
       </c>
       <c r="D7" t="n">
-        <v>194.4233506980501</v>
+        <v>199.2620549717577</v>
       </c>
       <c r="E7" t="n">
         <v>70</v>
@@ -596,13 +596,13 @@
         <v>44964</v>
       </c>
       <c r="B8" t="n">
-        <v>169.8222890278805</v>
+        <v>166.5506678776922</v>
       </c>
       <c r="C8" t="n">
-        <v>61.19252030245364</v>
+        <v>42.43905946270265</v>
       </c>
       <c r="D8" t="n">
-        <v>280.4725522214429</v>
+        <v>285.7585477653694</v>
       </c>
       <c r="E8" t="n">
         <v>130</v>
@@ -616,13 +616,13 @@
         <v>44971</v>
       </c>
       <c r="B9" t="n">
-        <v>150.3646449256074</v>
+        <v>146.9497938207342</v>
       </c>
       <c r="C9" t="n">
-        <v>51.33614744629121</v>
+        <v>45.77044069255029</v>
       </c>
       <c r="D9" t="n">
-        <v>264.4892074853773</v>
+        <v>258.8056075839116</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
@@ -636,13 +636,13 @@
         <v>44980</v>
       </c>
       <c r="B10" t="n">
-        <v>-71.00736272027699</v>
+        <v>-61.97466969959702</v>
       </c>
       <c r="C10" t="n">
-        <v>-176.9314317101993</v>
+        <v>-175.6213318463841</v>
       </c>
       <c r="D10" t="n">
-        <v>40.91160979953123</v>
+        <v>55.68503627537385</v>
       </c>
       <c r="E10" t="n">
         <v>170</v>
@@ -656,13 +656,13 @@
         <v>44985</v>
       </c>
       <c r="B11" t="n">
-        <v>217.0531904221433</v>
+        <v>215.027470501329</v>
       </c>
       <c r="C11" t="n">
-        <v>108.0004603523038</v>
+        <v>97.30829684098244</v>
       </c>
       <c r="D11" t="n">
-        <v>322.3194801268189</v>
+        <v>328.9874002140338</v>
       </c>
       <c r="E11" t="n">
         <v>150</v>
@@ -676,13 +676,13 @@
         <v>44988</v>
       </c>
       <c r="B12" t="n">
-        <v>142.9583715879669</v>
+        <v>142.4505905311201</v>
       </c>
       <c r="C12" t="n">
-        <v>30.28300681205473</v>
+        <v>21.77288352673886</v>
       </c>
       <c r="D12" t="n">
-        <v>257.3924594282273</v>
+        <v>258.3585872879302</v>
       </c>
       <c r="E12" t="n">
         <v>80</v>
@@ -696,13 +696,13 @@
         <v>44992</v>
       </c>
       <c r="B13" t="n">
-        <v>266.9575512643835</v>
+        <v>265.9611679907638</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5923878121311</v>
+        <v>157.0852309806581</v>
       </c>
       <c r="D13" t="n">
-        <v>369.3568661955642</v>
+        <v>384.9747987472621</v>
       </c>
       <c r="E13" t="n">
         <v>210</v>
@@ -716,13 +716,13 @@
         <v>44999</v>
       </c>
       <c r="B14" t="n">
-        <v>265.5143705002009</v>
+        <v>262.4902841323755</v>
       </c>
       <c r="C14" t="n">
-        <v>159.2359743795234</v>
+        <v>149.2294702353183</v>
       </c>
       <c r="D14" t="n">
-        <v>374.4411870531778</v>
+        <v>383.6160393691465</v>
       </c>
       <c r="E14" t="n">
         <v>140</v>
@@ -736,13 +736,13 @@
         <v>45006</v>
       </c>
       <c r="B15" t="n">
-        <v>209.5849857840112</v>
+        <v>212.3896300221878</v>
       </c>
       <c r="C15" t="n">
-        <v>101.7829134704663</v>
+        <v>100.5233352001426</v>
       </c>
       <c r="D15" t="n">
-        <v>318.7838304836765</v>
+        <v>325.1852067821382</v>
       </c>
       <c r="E15" t="n">
         <v>130</v>
@@ -756,13 +756,13 @@
         <v>45013</v>
       </c>
       <c r="B16" t="n">
-        <v>159.7545246886677</v>
+        <v>160.1066157531487</v>
       </c>
       <c r="C16" t="n">
-        <v>61.57838686125271</v>
+        <v>39.01583767051473</v>
       </c>
       <c r="D16" t="n">
-        <v>268.3938097684158</v>
+        <v>271.38707925554</v>
       </c>
       <c r="E16" t="n">
         <v>130</v>
@@ -776,13 +776,13 @@
         <v>45020</v>
       </c>
       <c r="B17" t="n">
-        <v>152.770690568662</v>
+        <v>160.7633691296556</v>
       </c>
       <c r="C17" t="n">
-        <v>45.75471161229787</v>
+        <v>45.52668616943554</v>
       </c>
       <c r="D17" t="n">
-        <v>263.0195183270383</v>
+        <v>281.0589248141409</v>
       </c>
       <c r="E17" t="n">
         <v>230</v>
@@ -796,13 +796,13 @@
         <v>45027</v>
       </c>
       <c r="B18" t="n">
-        <v>215.9408333743671</v>
+        <v>214.8397584618903</v>
       </c>
       <c r="C18" t="n">
-        <v>108.912328974533</v>
+        <v>100.7832914004881</v>
       </c>
       <c r="D18" t="n">
-        <v>327.2746984251497</v>
+        <v>331.8663451070854</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>45034</v>
       </c>
       <c r="B19" t="n">
-        <v>265.8851359158706</v>
+        <v>272.9185390308678</v>
       </c>
       <c r="C19" t="n">
-        <v>163.3862656470914</v>
+        <v>157.1505966986408</v>
       </c>
       <c r="D19" t="n">
-        <v>365.4931254378544</v>
+        <v>388.8816521217692</v>
       </c>
       <c r="E19" t="n">
         <v>170</v>
@@ -836,13 +836,13 @@
         <v>45040</v>
       </c>
       <c r="B20" t="n">
-        <v>217.6182654393913</v>
+        <v>220.8696340599135</v>
       </c>
       <c r="C20" t="n">
-        <v>113.1075100255368</v>
+        <v>109.3447889455615</v>
       </c>
       <c r="D20" t="n">
-        <v>328.5605242561971</v>
+        <v>329.3358877890449</v>
       </c>
       <c r="E20" t="n">
         <v>150</v>
@@ -856,13 +856,13 @@
         <v>45048</v>
       </c>
       <c r="B21" t="n">
-        <v>260.6556770417993</v>
+        <v>267.5355324517231</v>
       </c>
       <c r="C21" t="n">
-        <v>154.0700917626108</v>
+        <v>148.4253600356263</v>
       </c>
       <c r="D21" t="n">
-        <v>365.4919683722458</v>
+        <v>382.1866814041707</v>
       </c>
       <c r="E21" t="n">
         <v>210</v>
@@ -876,13 +876,13 @@
         <v>45055</v>
       </c>
       <c r="B22" t="n">
-        <v>200.3594167837772</v>
+        <v>204.312054320765</v>
       </c>
       <c r="C22" t="n">
-        <v>91.81654487075976</v>
+        <v>86.2503903221275</v>
       </c>
       <c r="D22" t="n">
-        <v>317.2338013528844</v>
+        <v>319.7457070418302</v>
       </c>
       <c r="E22" t="n">
         <v>240</v>
@@ -896,13 +896,13 @@
         <v>45062</v>
       </c>
       <c r="B23" t="n">
-        <v>150.2189545337982</v>
+        <v>147.3850486691856</v>
       </c>
       <c r="C23" t="n">
-        <v>36.62671688420683</v>
+        <v>28.83781493636954</v>
       </c>
       <c r="D23" t="n">
-        <v>266.4195377271278</v>
+        <v>256.3402071778074</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -977,22 +977,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2083.101508012698</v>
+        <v>2028.379186182905</v>
       </c>
       <c r="C2" t="n">
-        <v>45.64100686896268</v>
+        <v>45.03753086241413</v>
       </c>
       <c r="D2" t="n">
-        <v>38.59336991826781</v>
+        <v>37.4839315922726</v>
       </c>
       <c r="E2" t="n">
-        <v>0.495121024200284</v>
+        <v>0.4797252812011086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.495121024200284</v>
+        <v>0.4797252812011086</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3746324442960389</v>
+        <v>0.3628103344870822</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1003,22 +1003,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3327.665664522337</v>
+        <v>3525.442108984478</v>
       </c>
       <c r="C3" t="n">
-        <v>57.68592258534431</v>
+        <v>59.37543354776012</v>
       </c>
       <c r="D3" t="n">
-        <v>53.10581767882955</v>
+        <v>54.17678282609305</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4729547302314463</v>
+        <v>0.4760947541335993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3270254199067952</v>
+        <v>0.3256412039146529</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3712523096505579</v>
+        <v>0.3724955870336515</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1029,22 +1029,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5266.693297159974</v>
+        <v>5242.774198645624</v>
       </c>
       <c r="C4" t="n">
-        <v>72.57198700021912</v>
+        <v>72.40700379552813</v>
       </c>
       <c r="D4" t="n">
-        <v>64.9015049178862</v>
+        <v>64.32040672063954</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4655872901638176</v>
+        <v>0.4606277242528787</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3229675182051506</v>
+        <v>0.3098106489115408</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3632043874193065</v>
+        <v>0.3581646352076082</v>
       </c>
       <c r="H4" t="n">
         <v>0.8888888888888893</v>

--- a/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>162.5211780013051</v>
+        <v>168.9866174434369</v>
       </c>
       <c r="C2" t="n">
-        <v>38.44890506488736</v>
+        <v>54.07532611541169</v>
       </c>
       <c r="D2" t="n">
-        <v>270.8393412223631</v>
+        <v>278.9614409468592</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44936</v>
       </c>
       <c r="B3" t="n">
-        <v>177.165958332475</v>
+        <v>175.322567454101</v>
       </c>
       <c r="C3" t="n">
-        <v>64.61816402716487</v>
+        <v>73.25073775546795</v>
       </c>
       <c r="D3" t="n">
-        <v>300.2404939825666</v>
+        <v>295.5454605434757</v>
       </c>
       <c r="E3" t="n">
         <v>260</v>
@@ -516,13 +516,13 @@
         <v>44943</v>
       </c>
       <c r="B4" t="n">
-        <v>219.4974212799783</v>
+        <v>216.4649743743096</v>
       </c>
       <c r="C4" t="n">
-        <v>104.987143865966</v>
+        <v>103.4808790348533</v>
       </c>
       <c r="D4" t="n">
-        <v>333.9124011936326</v>
+        <v>327.4356403253842</v>
       </c>
       <c r="E4" t="n">
         <v>210</v>
@@ -536,13 +536,13 @@
         <v>44950</v>
       </c>
       <c r="B5" t="n">
-        <v>235.1469559428715</v>
+        <v>237.2419828930705</v>
       </c>
       <c r="C5" t="n">
-        <v>120.0978724854699</v>
+        <v>119.5905167334561</v>
       </c>
       <c r="D5" t="n">
-        <v>349.4814514481597</v>
+        <v>356.0429021859015</v>
       </c>
       <c r="E5" t="n">
         <v>150</v>
@@ -556,13 +556,13 @@
         <v>44957</v>
       </c>
       <c r="B6" t="n">
-        <v>210.6886388183542</v>
+        <v>217.4212952754781</v>
       </c>
       <c r="C6" t="n">
-        <v>88.58355632931443</v>
+        <v>98.06045088076392</v>
       </c>
       <c r="D6" t="n">
-        <v>319.027975965295</v>
+        <v>325.3944241241547</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44960</v>
       </c>
       <c r="B7" t="n">
-        <v>82.51727265342511</v>
+        <v>88.70113462497079</v>
       </c>
       <c r="C7" t="n">
-        <v>-25.28548335905767</v>
+        <v>-28.91353249351962</v>
       </c>
       <c r="D7" t="n">
-        <v>199.2620549717577</v>
+        <v>198.3853760867153</v>
       </c>
       <c r="E7" t="n">
         <v>70</v>
@@ -596,13 +596,13 @@
         <v>44964</v>
       </c>
       <c r="B8" t="n">
-        <v>166.5506678776922</v>
+        <v>169.3181217925439</v>
       </c>
       <c r="C8" t="n">
-        <v>42.43905946270265</v>
+        <v>60.40742709574425</v>
       </c>
       <c r="D8" t="n">
-        <v>285.7585477653694</v>
+        <v>277.7671113165204</v>
       </c>
       <c r="E8" t="n">
         <v>130</v>
@@ -616,13 +616,13 @@
         <v>44971</v>
       </c>
       <c r="B9" t="n">
-        <v>146.9497938207342</v>
+        <v>142.1330997384093</v>
       </c>
       <c r="C9" t="n">
-        <v>45.77044069255029</v>
+        <v>37.48430898195411</v>
       </c>
       <c r="D9" t="n">
-        <v>258.8056075839116</v>
+        <v>253.7400158764173</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
@@ -636,13 +636,13 @@
         <v>44980</v>
       </c>
       <c r="B10" t="n">
-        <v>-61.97466969959702</v>
+        <v>-77.42025215584066</v>
       </c>
       <c r="C10" t="n">
-        <v>-175.6213318463841</v>
+        <v>-191.2769487421151</v>
       </c>
       <c r="D10" t="n">
-        <v>55.68503627537385</v>
+        <v>31.95842566877839</v>
       </c>
       <c r="E10" t="n">
         <v>170</v>
@@ -656,13 +656,13 @@
         <v>44985</v>
       </c>
       <c r="B11" t="n">
-        <v>215.027470501329</v>
+        <v>212.1152194750534</v>
       </c>
       <c r="C11" t="n">
-        <v>97.30829684098244</v>
+        <v>95.01278982744951</v>
       </c>
       <c r="D11" t="n">
-        <v>328.9874002140338</v>
+        <v>325.8438144498051</v>
       </c>
       <c r="E11" t="n">
         <v>150</v>
@@ -676,13 +676,13 @@
         <v>44988</v>
       </c>
       <c r="B12" t="n">
-        <v>142.4505905311201</v>
+        <v>143.6106830848049</v>
       </c>
       <c r="C12" t="n">
-        <v>21.77288352673886</v>
+        <v>28.79286088549125</v>
       </c>
       <c r="D12" t="n">
-        <v>258.3585872879302</v>
+        <v>263.8374879531499</v>
       </c>
       <c r="E12" t="n">
         <v>80</v>
@@ -696,13 +696,13 @@
         <v>44992</v>
       </c>
       <c r="B13" t="n">
-        <v>265.9611679907638</v>
+        <v>276.2411642128668</v>
       </c>
       <c r="C13" t="n">
-        <v>157.0852309806581</v>
+        <v>163.871081946058</v>
       </c>
       <c r="D13" t="n">
-        <v>384.9747987472621</v>
+        <v>387.4725341061599</v>
       </c>
       <c r="E13" t="n">
         <v>210</v>
@@ -716,13 +716,13 @@
         <v>44999</v>
       </c>
       <c r="B14" t="n">
-        <v>262.4902841323755</v>
+        <v>286.110076593467</v>
       </c>
       <c r="C14" t="n">
-        <v>149.2294702353183</v>
+        <v>175.0571333037783</v>
       </c>
       <c r="D14" t="n">
-        <v>383.6160393691465</v>
+        <v>391.7396943651215</v>
       </c>
       <c r="E14" t="n">
         <v>140</v>
@@ -736,13 +736,13 @@
         <v>45006</v>
       </c>
       <c r="B15" t="n">
-        <v>212.3896300221878</v>
+        <v>227.7848137199159</v>
       </c>
       <c r="C15" t="n">
-        <v>100.5233352001426</v>
+        <v>113.8193471384738</v>
       </c>
       <c r="D15" t="n">
-        <v>325.1852067821382</v>
+        <v>345.0260729532042</v>
       </c>
       <c r="E15" t="n">
         <v>130</v>
@@ -756,13 +756,13 @@
         <v>45013</v>
       </c>
       <c r="B16" t="n">
-        <v>160.1066157531487</v>
+        <v>162.0610460628068</v>
       </c>
       <c r="C16" t="n">
-        <v>39.01583767051473</v>
+        <v>42.46310518760257</v>
       </c>
       <c r="D16" t="n">
-        <v>271.38707925554</v>
+        <v>279.0410356677753</v>
       </c>
       <c r="E16" t="n">
         <v>130</v>
@@ -776,13 +776,13 @@
         <v>45020</v>
       </c>
       <c r="B17" t="n">
-        <v>160.7633691296556</v>
+        <v>146.4018004354568</v>
       </c>
       <c r="C17" t="n">
-        <v>45.52668616943554</v>
+        <v>32.32739292944838</v>
       </c>
       <c r="D17" t="n">
-        <v>281.0589248141409</v>
+        <v>255.6335423543779</v>
       </c>
       <c r="E17" t="n">
         <v>230</v>
@@ -796,13 +796,13 @@
         <v>45027</v>
       </c>
       <c r="B18" t="n">
-        <v>214.8397584618903</v>
+        <v>211.450108048106</v>
       </c>
       <c r="C18" t="n">
-        <v>100.7832914004881</v>
+        <v>97.74421573433538</v>
       </c>
       <c r="D18" t="n">
-        <v>331.8663451070854</v>
+        <v>332.6530170279506</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>45034</v>
       </c>
       <c r="B19" t="n">
-        <v>272.9185390308678</v>
+        <v>265.8118001164347</v>
       </c>
       <c r="C19" t="n">
-        <v>157.1505966986408</v>
+        <v>157.2101397167814</v>
       </c>
       <c r="D19" t="n">
-        <v>388.8816521217692</v>
+        <v>384.7180970341313</v>
       </c>
       <c r="E19" t="n">
         <v>170</v>
@@ -836,13 +836,13 @@
         <v>45040</v>
       </c>
       <c r="B20" t="n">
-        <v>220.8696340599135</v>
+        <v>217.0231570256305</v>
       </c>
       <c r="C20" t="n">
-        <v>109.3447889455615</v>
+        <v>107.8762697519473</v>
       </c>
       <c r="D20" t="n">
-        <v>329.3358877890449</v>
+        <v>331.665582598077</v>
       </c>
       <c r="E20" t="n">
         <v>150</v>
@@ -856,13 +856,13 @@
         <v>45048</v>
       </c>
       <c r="B21" t="n">
-        <v>267.5355324517231</v>
+        <v>264.5749592248767</v>
       </c>
       <c r="C21" t="n">
-        <v>148.4253600356263</v>
+        <v>152.5905265080532</v>
       </c>
       <c r="D21" t="n">
-        <v>382.1866814041707</v>
+        <v>380.8512743836143</v>
       </c>
       <c r="E21" t="n">
         <v>210</v>
@@ -876,13 +876,13 @@
         <v>45055</v>
       </c>
       <c r="B22" t="n">
-        <v>204.312054320765</v>
+        <v>196.9222581339471</v>
       </c>
       <c r="C22" t="n">
-        <v>86.2503903221275</v>
+        <v>86.58378680816352</v>
       </c>
       <c r="D22" t="n">
-        <v>319.7457070418302</v>
+        <v>312.747227149621</v>
       </c>
       <c r="E22" t="n">
         <v>240</v>
@@ -896,13 +896,13 @@
         <v>45062</v>
       </c>
       <c r="B23" t="n">
-        <v>147.3850486691856</v>
+        <v>146.2004500732457</v>
       </c>
       <c r="C23" t="n">
-        <v>28.83781493636954</v>
+        <v>33.68289459004851</v>
       </c>
       <c r="D23" t="n">
-        <v>256.3402071778074</v>
+        <v>263.3673784248538</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -977,22 +977,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2028.379186182905</v>
+        <v>2198.025719388384</v>
       </c>
       <c r="C2" t="n">
-        <v>45.03753086241413</v>
+        <v>46.88310697243075</v>
       </c>
       <c r="D2" t="n">
-        <v>37.4839315922726</v>
+        <v>41.15590885488785</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4797252812011086</v>
+        <v>0.5311463023155364</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4797252812011086</v>
+        <v>0.5311463023155364</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3628103344870822</v>
+        <v>0.4023093752177028</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1003,22 +1003,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3525.442108984478</v>
+        <v>3345.064648535352</v>
       </c>
       <c r="C3" t="n">
-        <v>59.37543354776012</v>
+        <v>57.83653385651107</v>
       </c>
       <c r="D3" t="n">
-        <v>54.17678282609305</v>
+        <v>54.08953294025916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4760947541335993</v>
+        <v>0.4889836745765364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3256412039146529</v>
+        <v>0.3569900564542738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3724955870336515</v>
+        <v>0.3837675711358438</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1029,22 +1029,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5242.774198645624</v>
+        <v>5975.737124697167</v>
       </c>
       <c r="C4" t="n">
-        <v>72.40700379552813</v>
+        <v>77.30289208494833</v>
       </c>
       <c r="D4" t="n">
-        <v>64.32040672063954</v>
+        <v>68.07050572336198</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4606277242528787</v>
+        <v>0.485511495801747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3098106489115408</v>
+        <v>0.3445764328790804</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3581646352076082</v>
+        <v>0.3747075119339889</v>
       </c>
       <c r="H4" t="n">
         <v>0.8888888888888893</v>

--- a/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
+++ b/modelos/OBASAL4421668/OBASAL4421668_Sell in_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>44929</v>
       </c>
       <c r="B2" t="n">
-        <v>168.9866174434369</v>
+        <v>160.872628924235</v>
       </c>
       <c r="C2" t="n">
-        <v>54.07532611541169</v>
+        <v>44.71920359686563</v>
       </c>
       <c r="D2" t="n">
-        <v>278.9614409468592</v>
+        <v>286.7198606669051</v>
       </c>
       <c r="E2" t="n">
         <v>140</v>
@@ -496,13 +496,13 @@
         <v>44936</v>
       </c>
       <c r="B3" t="n">
-        <v>175.322567454101</v>
+        <v>174.6535749701484</v>
       </c>
       <c r="C3" t="n">
-        <v>73.25073775546795</v>
+        <v>58.02997582898138</v>
       </c>
       <c r="D3" t="n">
-        <v>295.5454605434757</v>
+        <v>293.6724802592561</v>
       </c>
       <c r="E3" t="n">
         <v>260</v>
@@ -516,13 +516,13 @@
         <v>44943</v>
       </c>
       <c r="B4" t="n">
-        <v>216.4649743743096</v>
+        <v>214.8344815420593</v>
       </c>
       <c r="C4" t="n">
-        <v>103.4808790348533</v>
+        <v>94.44663335873022</v>
       </c>
       <c r="D4" t="n">
-        <v>327.4356403253842</v>
+        <v>345.5377836560942</v>
       </c>
       <c r="E4" t="n">
         <v>210</v>
@@ -536,13 +536,13 @@
         <v>44950</v>
       </c>
       <c r="B5" t="n">
-        <v>237.2419828930705</v>
+        <v>235.5666799071592</v>
       </c>
       <c r="C5" t="n">
-        <v>119.5905167334561</v>
+        <v>124.9674763898189</v>
       </c>
       <c r="D5" t="n">
-        <v>356.0429021859015</v>
+        <v>352.5546833612391</v>
       </c>
       <c r="E5" t="n">
         <v>150</v>
@@ -556,13 +556,13 @@
         <v>44957</v>
       </c>
       <c r="B6" t="n">
-        <v>217.4212952754781</v>
+        <v>210.6942955884015</v>
       </c>
       <c r="C6" t="n">
-        <v>98.06045088076392</v>
+        <v>83.08332461107349</v>
       </c>
       <c r="D6" t="n">
-        <v>325.3944241241547</v>
+        <v>326.2587499533166</v>
       </c>
       <c r="E6" t="n">
         <v>80</v>
@@ -576,13 +576,13 @@
         <v>44960</v>
       </c>
       <c r="B7" t="n">
-        <v>88.70113462497079</v>
+        <v>79.34219698391088</v>
       </c>
       <c r="C7" t="n">
-        <v>-28.91353249351962</v>
+        <v>-39.52419044701523</v>
       </c>
       <c r="D7" t="n">
-        <v>198.3853760867153</v>
+        <v>191.5915851411022</v>
       </c>
       <c r="E7" t="n">
         <v>70</v>
@@ -596,13 +596,13 @@
         <v>44964</v>
       </c>
       <c r="B8" t="n">
-        <v>169.3181217925439</v>
+        <v>163.5631052213679</v>
       </c>
       <c r="C8" t="n">
-        <v>60.40742709574425</v>
+        <v>43.6854865711496</v>
       </c>
       <c r="D8" t="n">
-        <v>277.7671113165204</v>
+        <v>273.1024915487322</v>
       </c>
       <c r="E8" t="n">
         <v>130</v>
@@ -616,13 +616,13 @@
         <v>44971</v>
       </c>
       <c r="B9" t="n">
-        <v>142.1330997384093</v>
+        <v>140.3118831188602</v>
       </c>
       <c r="C9" t="n">
-        <v>37.48430898195411</v>
+        <v>31.08214388848478</v>
       </c>
       <c r="D9" t="n">
-        <v>253.7400158764173</v>
+        <v>253.5420341773248</v>
       </c>
       <c r="E9" t="n">
         <v>120</v>
@@ -636,13 +636,13 @@
         <v>44980</v>
       </c>
       <c r="B10" t="n">
-        <v>-77.42025215584066</v>
+        <v>-40.38130357477016</v>
       </c>
       <c r="C10" t="n">
-        <v>-191.2769487421151</v>
+        <v>-162.1524248296038</v>
       </c>
       <c r="D10" t="n">
-        <v>31.95842566877839</v>
+        <v>77.691347375277</v>
       </c>
       <c r="E10" t="n">
         <v>170</v>
@@ -656,13 +656,13 @@
         <v>44985</v>
       </c>
       <c r="B11" t="n">
-        <v>212.1152194750534</v>
+        <v>227.3249563096585</v>
       </c>
       <c r="C11" t="n">
-        <v>95.01278982744951</v>
+        <v>98.78249810272182</v>
       </c>
       <c r="D11" t="n">
-        <v>325.8438144498051</v>
+        <v>347.4454976742461</v>
       </c>
       <c r="E11" t="n">
         <v>150</v>
@@ -676,13 +676,13 @@
         <v>44988</v>
       </c>
       <c r="B12" t="n">
-        <v>143.6106830848049</v>
+        <v>161.2751029657103</v>
       </c>
       <c r="C12" t="n">
-        <v>28.79286088549125</v>
+        <v>46.76770340249347</v>
       </c>
       <c r="D12" t="n">
-        <v>263.8374879531499</v>
+        <v>278.3454712728224</v>
       </c>
       <c r="E12" t="n">
         <v>80</v>
@@ -696,13 +696,13 @@
         <v>44992</v>
       </c>
       <c r="B13" t="n">
-        <v>276.2411642128668</v>
+        <v>297.1636714894927</v>
       </c>
       <c r="C13" t="n">
-        <v>163.871081946058</v>
+        <v>169.9510078116493</v>
       </c>
       <c r="D13" t="n">
-        <v>387.4725341061599</v>
+        <v>411.0101506809297</v>
       </c>
       <c r="E13" t="n">
         <v>210</v>
@@ -716,13 +716,13 @@
         <v>44999</v>
       </c>
       <c r="B14" t="n">
-        <v>286.110076593467</v>
+        <v>298.6514526692998</v>
       </c>
       <c r="C14" t="n">
-        <v>175.0571333037783</v>
+        <v>186.102374644475</v>
       </c>
       <c r="D14" t="n">
-        <v>391.7396943651215</v>
+        <v>412.2551839900784</v>
       </c>
       <c r="E14" t="n">
         <v>140</v>
@@ -736,13 +736,13 @@
         <v>45006</v>
       </c>
       <c r="B15" t="n">
-        <v>227.7848137199159</v>
+        <v>241.810078825529</v>
       </c>
       <c r="C15" t="n">
-        <v>113.8193471384738</v>
+        <v>119.6654765968147</v>
       </c>
       <c r="D15" t="n">
-        <v>345.0260729532042</v>
+        <v>364.3682896256961</v>
       </c>
       <c r="E15" t="n">
         <v>130</v>
@@ -756,13 +756,13 @@
         <v>45013</v>
       </c>
       <c r="B16" t="n">
-        <v>162.0610460628068</v>
+        <v>176.2622998524394</v>
       </c>
       <c r="C16" t="n">
-        <v>42.46310518760257</v>
+        <v>64.19067345383888</v>
       </c>
       <c r="D16" t="n">
-        <v>279.0410356677753</v>
+        <v>291.5983639531095</v>
       </c>
       <c r="E16" t="n">
         <v>130</v>
@@ -776,13 +776,13 @@
         <v>45020</v>
       </c>
       <c r="B17" t="n">
-        <v>146.4018004354568</v>
+        <v>158.7235209583921</v>
       </c>
       <c r="C17" t="n">
-        <v>32.32739292944838</v>
+        <v>39.94766496292129</v>
       </c>
       <c r="D17" t="n">
-        <v>255.6335423543779</v>
+        <v>292.3288602914239</v>
       </c>
       <c r="E17" t="n">
         <v>230</v>
@@ -796,13 +796,13 @@
         <v>45027</v>
       </c>
       <c r="B18" t="n">
-        <v>211.450108048106</v>
+        <v>207.4326208142546</v>
       </c>
       <c r="C18" t="n">
-        <v>97.74421573433538</v>
+        <v>93.5642962243721</v>
       </c>
       <c r="D18" t="n">
-        <v>332.6530170279506</v>
+        <v>317.9802954704332</v>
       </c>
       <c r="E18" t="n">
         <v>130</v>
@@ -816,13 +816,13 @@
         <v>45034</v>
       </c>
       <c r="B19" t="n">
-        <v>265.8118001164347</v>
+        <v>263.9769288769288</v>
       </c>
       <c r="C19" t="n">
-        <v>157.2101397167814</v>
+        <v>146.3825276334724</v>
       </c>
       <c r="D19" t="n">
-        <v>384.7180970341313</v>
+        <v>388.6393491214689</v>
       </c>
       <c r="E19" t="n">
         <v>170</v>
@@ -836,13 +836,13 @@
         <v>45040</v>
       </c>
       <c r="B20" t="n">
-        <v>217.0231570256305</v>
+        <v>205.4148537710823</v>
       </c>
       <c r="C20" t="n">
-        <v>107.8762697519473</v>
+        <v>97.7696477207971</v>
       </c>
       <c r="D20" t="n">
-        <v>331.665582598077</v>
+        <v>322.3185899155421</v>
       </c>
       <c r="E20" t="n">
         <v>150</v>
@@ -856,13 +856,13 @@
         <v>45048</v>
       </c>
       <c r="B21" t="n">
-        <v>264.5749592248767</v>
+        <v>263.2762321337273</v>
       </c>
       <c r="C21" t="n">
-        <v>152.5905265080532</v>
+        <v>136.3555621591702</v>
       </c>
       <c r="D21" t="n">
-        <v>380.8512743836143</v>
+        <v>376.1025187271808</v>
       </c>
       <c r="E21" t="n">
         <v>210</v>
@@ -876,13 +876,13 @@
         <v>45055</v>
       </c>
       <c r="B22" t="n">
-        <v>196.9222581339471</v>
+        <v>198.3274780193976</v>
       </c>
       <c r="C22" t="n">
-        <v>86.58378680816352</v>
+        <v>67.62245917625248</v>
       </c>
       <c r="D22" t="n">
-        <v>312.747227149621</v>
+        <v>315.7576064756396</v>
       </c>
       <c r="E22" t="n">
         <v>240</v>
@@ -896,13 +896,13 @@
         <v>45062</v>
       </c>
       <c r="B23" t="n">
-        <v>146.2004500732457</v>
+        <v>143.1827883193856</v>
       </c>
       <c r="C23" t="n">
-        <v>33.68289459004851</v>
+        <v>28.18452307892755</v>
       </c>
       <c r="D23" t="n">
-        <v>263.3673784248538</v>
+        <v>262.2706400371945</v>
       </c>
       <c r="E23" t="n">
         <v>90</v>
@@ -977,22 +977,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2198.025719388384</v>
+        <v>3346.459503286504</v>
       </c>
       <c r="C2" t="n">
-        <v>46.88310697243075</v>
+        <v>57.84859119534809</v>
       </c>
       <c r="D2" t="n">
-        <v>41.15590885488785</v>
+        <v>45.30864997481061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5311463023155364</v>
+        <v>0.5746993719921958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5311463023155364</v>
+        <v>0.5746993719921958</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4023093752177028</v>
+        <v>0.399412209148916</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1003,22 +1003,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>3345.064648535352</v>
+        <v>3208.632760878468</v>
       </c>
       <c r="C3" t="n">
-        <v>57.83653385651107</v>
+        <v>56.64479464945096</v>
       </c>
       <c r="D3" t="n">
-        <v>54.08953294025916</v>
+        <v>50.36175187294644</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4889836745765364</v>
+        <v>0.4720658652330388</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3569900564542738</v>
+        <v>0.2514461576934472</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3837675711358438</v>
+        <v>0.3556220804632266</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1029,22 +1029,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5975.737124697167</v>
+        <v>6354.698264520906</v>
       </c>
       <c r="C4" t="n">
-        <v>77.30289208494833</v>
+        <v>79.71636133517953</v>
       </c>
       <c r="D4" t="n">
-        <v>68.07050572336198</v>
+        <v>69.62330720249224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.485511495801747</v>
+        <v>0.4937919441069232</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3445764328790804</v>
+        <v>0.3854644736748412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3747075119339889</v>
+        <v>0.3773701188205161</v>
       </c>
       <c r="H4" t="n">
         <v>0.8888888888888893</v>
